--- a/data/hotels_by_city/Dallas/Dallas_shard_581.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_581.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,270 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r475002139-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>56371</t>
+  </si>
+  <si>
+    <t>226190</t>
+  </si>
+  <si>
+    <t>475002139</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Very Disappointed</t>
+  </si>
+  <si>
+    <t>We stay at Motel 6 all the time and are always pleased but this one was terrible. The outside looked good and the staff was friendly but the room was horrible. The bedspread was so stained up that I took it off the bed and put it on the floor and when I returned to the room the next day, housekeeping put it back on the bed. There was a hole in the bathroom door, trim was coming off the wall under the air conditioner, scraps on the walls, the toilet seat was coming loose and the bed was so uncomfortable felt like springs were coming out. I understand that we didn't pay a whole lot for the room but still would like a clean decent room.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 North Richland Hills- NE Ft Worth, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>We stay at Motel 6 all the time and are always pleased but this one was terrible. The outside looked good and the staff was friendly but the room was horrible. The bedspread was so stained up that I took it off the bed and put it on the floor and when I returned to the room the next day, housekeeping put it back on the bed. There was a hole in the bathroom door, trim was coming off the wall under the air conditioner, scraps on the walls, the toilet seat was coming loose and the bed was so uncomfortable felt like springs were coming out. I understand that we didn't pay a whole lot for the room but still would like a clean decent room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r467162948-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>467162948</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Not really that bad but still motel 6!</t>
+  </si>
+  <si>
+    <t>This is a standard motel 6 but fairly clean.  No breakfast at all.  Convenient to Walmart and McDonald's.  Quiet except for the lesbian couple next door arguing over the guy at front desk!  Would stay again!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r430137866-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>430137866</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice rooms with microwave and refrigerator and nice friendly staff. Hotel also has high speed wifi for any business purpose .There are many restaurant or fast food around this area where motel 6 is located .Another , great part of this motel is it near malls and 30 min from Dallas and like 25 min from Irving Tx. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r338041029-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>338041029</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>Welcome to the slum of N. Richland Hills</t>
+  </si>
+  <si>
+    <t>Outside is nice. The story lays inside, you have drug dealers in and out, fighting couples slamming doors and screaming. Cops picking up kids/and or dropping off kids. Cops sit in the street. This is just the 1st floor. Move to the 2nd floor more drugs and now prostitutes. Not to mention there was blood on my comforter and the bathroom cabinet is slanted and busted with some Vaseline half-way patching it. Definitely would say keep driving. Management does not care either.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r277443139-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>277443139</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>GREAT ACCOMODATION</t>
+  </si>
+  <si>
+    <t>I was desperate to find a last minute accomodation for just an overnight lay over. They were the cheapest I could find that still had available rooms. When I called the hotel they sent a shuttle to pick me up right away. My room was wonderful! It was so spacious and clean. I told the front desk I wanted to have dinner but didnt have a car and she immediately gave me a whole stack of delivery options! Wifi in the room was strong. Bathroom was full of towels and tissue rolls. Id definitely come back here!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r275375338-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>275375338</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Find for overnight</t>
+  </si>
+  <si>
+    <t>I was moving back to California from Atlanta and I found a great deal for here through Orbitz.  We needed a place that was nice and had a free breakfast!  This was the perfect find.  Close to restaurants, a mall and even In N Out Burger.  We were satisfied with our 2 nights here.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r241247262-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>241247262</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Room had an overpowering smell of pine cleaner and hallways smelled like an ashtray. I will never stay there again. Pine smell was in sleep apnea machine and will not go away. We will never stay there again. Talked hotel staff on phone and I am suppossed to get refund. It could take a week because debit card was used but I still wanted to do a review so others with breathing problems or allergies could be alerted.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r237881117-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>237881117</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>place has  been trashed</t>
+  </si>
+  <si>
+    <t>Reservations were screwed up we were supposed to have  2 rooms 2 nites, both non smoking, we arrive had 2 rooms 1 nite, 1 smoking, 1 non, got that settled, sort of,I had to stay in smoking room. The upstairs smoking rooms hallway reeked of smoke and dog**** due to a resident putting dog**** in a hallway trashcan, it was there both days. Furniture in room was falling apart, carpet in hallways was coming up, almost tripped over it coming out of the room. the back entrance had a card reader on it, but did not have a door handle, making the door useless. This place was pretty nice last year just after it became a motel6, it has been totally trashed in the year since I was there last,I would not recommend this place to anyoneMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 North Richland Hills- NE Ft Worth, responded to this reviewResponded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Reservations were screwed up we were supposed to have  2 rooms 2 nites, both non smoking, we arrive had 2 rooms 1 nite, 1 smoking, 1 non, got that settled, sort of,I had to stay in smoking room. The upstairs smoking rooms hallway reeked of smoke and dog**** due to a resident putting dog**** in a hallway trashcan, it was there both days. Furniture in room was falling apart, carpet in hallways was coming up, almost tripped over it coming out of the room. the back entrance had a card reader on it, but did not have a door handle, making the door useless. This place was pretty nice last year just after it became a motel6, it has been totally trashed in the year since I was there last,I would not recommend this place to anyoneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r237846430-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>237846430</t>
+  </si>
+  <si>
+    <t>Lost a repeat customer with my last visit.</t>
+  </si>
+  <si>
+    <t>Have stayed here several times over the past year, but after my last visit I won't be back. There was noodles in the hall for 2 days. I even watched the maid roll over them with her cart. So gross. Its obvious who ever was managing this place before is no longer there, and whoever is in charge now doesn't care. So disappointed because the location is awesome. MoreShow less</t>
+  </si>
+  <si>
+    <t>Have stayed here several times over the past year, but after my last visit I won't be back. There was noodles in the hall for 2 days. I even watched the maid roll over them with her cart. So gross. Its obvious who ever was managing this place before is no longer there, and whoever is in charge now doesn't care. So disappointed because the location is awesome. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r175168268-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>175168268</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>Great deal!</t>
+  </si>
+  <si>
+    <t>This hotel used to be a comfort inn, so it's definitely a step-up from the standard Motel 6. --Our room &amp; bathroom were huge &amp; appeared very clean, we had a king size bed, sofa desk, flat screen TV, and a mini fridge. --The room smelled completely smoke-free, the AC got the room very cold, the shower had really great, strong water pressure. --One complaint is regarding the shower towels - they were very stained - and even though I know they were washed - I didn't want to dry off with them, they looked too gross. Recommend they throw those ones away or use as rags! --Pool looked nice &amp; well-kept. --Staff were very polite, friendly &amp; helpful. --Area felt safe, parking lot was well-lit and hotel was well located near restaurants, fast food &amp; gas stations. We recommend this hotel, especially for those on a budget, who have realistic expectations of what $45 dollars gets you :)MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel used to be a comfort inn, so it's definitely a step-up from the standard Motel 6. --Our room &amp; bathroom were huge &amp; appeared very clean, we had a king size bed, sofa desk, flat screen TV, and a mini fridge. --The room smelled completely smoke-free, the AC got the room very cold, the shower had really great, strong water pressure. --One complaint is regarding the shower towels - they were very stained - and even though I know they were washed - I didn't want to dry off with them, they looked too gross. Recommend they throw those ones away or use as rags! --Pool looked nice &amp; well-kept. --Staff were very polite, friendly &amp; helpful. --Area felt safe, parking lot was well-lit and hotel was well located near restaurants, fast food &amp; gas stations. We recommend this hotel, especially for those on a budget, who have realistic expectations of what $45 dollars gets you :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r146181524-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>146181524</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>Now a Motel 6. OK for the price.</t>
+  </si>
+  <si>
+    <t>For a Motel 6, this place is a palace. Rooms are large, and better furnished than the average Motel 6. I had a couch, a dirty looking microwave which I did not touch, and a battered mini fridge which worked well.  The room was basically clean, with two exceptions. 1) I really don't think the carpet was dirty, but it was stained looking. 2) when I showered, mildew washed down from underneath the trim in the shower. Also, the phone did mot work. The a/c worked well inthe warm day, and the heat didn't get too hot during the cold night.. Overall it was pretty good for a cheap place to stay.  There is a coin laundry.Its in a good location. There are lots of restauants, and a mall and other entertainment near by.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>For a Motel 6, this place is a palace. Rooms are large, and better furnished than the average Motel 6. I had a couch, a dirty looking microwave which I did not touch, and a battered mini fridge which worked well.  The room was basically clean, with two exceptions. 1) I really don't think the carpet was dirty, but it was stained looking. 2) when I showered, mildew washed down from underneath the trim in the shower. Also, the phone did mot work. The a/c worked well inthe warm day, and the heat didn't get too hot during the cold night.. Overall it was pretty good for a cheap place to stay.  There is a coin laundry.Its in a good location. There are lots of restauants, and a mall and other entertainment near by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r70531965-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>70531965</t>
+  </si>
+  <si>
+    <t>07/11/2010</t>
+  </si>
+  <si>
+    <t>Comfort Inns are NOW terrible customer service!!!!</t>
+  </si>
+  <si>
+    <t>Do not tarvel much, but when we ever did we always tried to stay at a Comfort Inn or affil. hotel. Wife's brother had a stroke and we waited until he stabilized to travel to Texas. Booked Comfort Inn closest to his home. This was neither a busines or leisure trip but emergency travel. As departure date came closer, we tried to cancell the North Richland Hills Comfort Inn and get a Comfort Inn closer to Southwestern Medical Ceneter. NO help or cooperation from Comfort Inn or Customer Service. Had to stay the  night at North Richland before moving to a closer Comfort Inn. We returned to North Carolina after five days and in June my borther-in-law passed away. While I am/was a "Choice Privileges Rewards Program" member. I/we will NEVER stay at a Comfort Inn, Clarion, Sleep Inn, Quality Inn and/or Comfort Suites again. Now that we are retired and travel more, this was one valuable lesson. Comfort Inn service sure did change or the worse!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>ComfortInnNRH, Manager at Motel 6 North Richland Hills- NE Ft Worth, responded to this reviewResponded November 23, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2010</t>
+  </si>
+  <si>
+    <t>Do not tarvel much, but when we ever did we always tried to stay at a Comfort Inn or affil. hotel. Wife's brother had a stroke and we waited until he stabilized to travel to Texas. Booked Comfort Inn closest to his home. This was neither a busines or leisure trip but emergency travel. As departure date came closer, we tried to cancell the North Richland Hills Comfort Inn and get a Comfort Inn closer to Southwestern Medical Ceneter. NO help or cooperation from Comfort Inn or Customer Service. Had to stay the  night at North Richland before moving to a closer Comfort Inn. We returned to North Carolina after five days and in June my borther-in-law passed away. While I am/was a "Choice Privileges Rewards Program" member. I/we will NEVER stay at a Comfort Inn, Clarion, Sleep Inn, Quality Inn and/or Comfort Suites again. Now that we are retired and travel more, this was one valuable lesson. Comfort Inn service sure did change or the worse!!!!!!More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +909,748 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>101</v>
+      </c>
+      <c r="X10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_581.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_581.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Dawn C</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>We stay at Motel 6 all the time and are always pleased but this one was terrible. The outside looked good and the staff was friendly but the room was horrible. The bedspread was so stained up that I took it off the bed and put it on the floor and when I returned to the room the next day, housekeeping put it back on the bed. There was a hole in the bathroom door, trim was coming off the wall under the air conditioner, scraps on the walls, the toilet seat was coming loose and the bed was so uncomfortable felt like springs were coming out. I understand that we didn't pay a whole lot for the room but still would like a clean decent room.More</t>
   </si>
   <si>
+    <t>jerseygirl6954</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r467162948-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Drake14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r430137866-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve">Very nice rooms with microwave and refrigerator and nice friendly staff. Hotel also has high speed wifi for any business purpose .There are many restaurant or fast food around this area where motel 6 is located .Another , great part of this motel is it near malls and 30 min from Dallas and like 25 min from Irving Tx. </t>
   </si>
   <si>
+    <t>Ally H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r338041029-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Nbetita</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r277443139-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>SoCalC8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r275375338-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Sarahcd76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r241247262-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>WINGER1423</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r237881117-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>Reservations were screwed up we were supposed to have  2 rooms 2 nites, both non smoking, we arrive had 2 rooms 1 nite, 1 smoking, 1 non, got that settled, sort of,I had to stay in smoking room. The upstairs smoking rooms hallway reeked of smoke and dog**** due to a resident putting dog**** in a hallway trashcan, it was there both days. Furniture in room was falling apart, carpet in hallways was coming up, almost tripped over it coming out of the room. the back entrance had a card reader on it, but did not have a door handle, making the door useless. This place was pretty nice last year just after it became a motel6, it has been totally trashed in the year since I was there last,I would not recommend this place to anyoneMore</t>
   </si>
   <si>
+    <t>Texas_Cristal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r237846430-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t>Have stayed here several times over the past year, but after my last visit I won't be back. There was noodles in the hall for 2 days. I even watched the maid roll over them with her cart. So gross. Its obvious who ever was managing this place before is no longer there, and whoever is in charge now doesn't care. So disappointed because the location is awesome. More</t>
   </si>
   <si>
+    <t>MissMicheleJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r175168268-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>This hotel used to be a comfort inn, so it's definitely a step-up from the standard Motel 6. --Our room &amp; bathroom were huge &amp; appeared very clean, we had a king size bed, sofa desk, flat screen TV, and a mini fridge. --The room smelled completely smoke-free, the AC got the room very cold, the shower had really great, strong water pressure. --One complaint is regarding the shower towels - they were very stained - and even though I know they were washed - I didn't want to dry off with them, they looked too gross. Recommend they throw those ones away or use as rags! --Pool looked nice &amp; well-kept. --Staff were very polite, friendly &amp; helpful. --Area felt safe, parking lot was well-lit and hotel was well located near restaurants, fast food &amp; gas stations. We recommend this hotel, especially for those on a budget, who have realistic expectations of what $45 dollars gets you :)More</t>
   </si>
   <si>
+    <t>Karie J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r146181524-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -382,6 +415,9 @@
   </si>
   <si>
     <t>For a Motel 6, this place is a palace. Rooms are large, and better furnished than the average Motel 6. I had a couch, a dirty looking microwave which I did not touch, and a battered mini fridge which worked well.  The room was basically clean, with two exceptions. 1) I really don't think the carpet was dirty, but it was stained looking. 2) when I showered, mildew washed down from underneath the trim in the shower. Also, the phone did mot work. The a/c worked well inthe warm day, and the heat didn't get too hot during the cold night.. Overall it was pretty good for a cheap place to stay.  There is a coin laundry.Its in a good location. There are lots of restauants, and a mall and other entertainment near by.More</t>
+  </si>
+  <si>
+    <t>vonessr</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r70531965-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
@@ -913,43 +949,47 @@
       <c r="A2" t="n">
         <v>5959</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>38581</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -965,56 +1005,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5959</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169442</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1028,41 +1072,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5959</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169443</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -1081,50 +1129,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5959</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>124777</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1138,50 +1190,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5959</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169444</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1199,50 +1255,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5959</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169445</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1258,50 +1318,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5959</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169446</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
         <v>93</v>
-      </c>
-      <c r="O8" t="s">
-        <v>87</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1321,50 +1385,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5959</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169447</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1382,47 +1450,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5959</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169448</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
         <v>104</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" t="s">
-        <v>96</v>
-      </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
@@ -1449,47 +1521,51 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="X10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5959</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169449</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -1518,50 +1594,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5959</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169450</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -1585,50 +1665,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5959</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169451</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1642,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="X13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_581.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_581.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Dawn C</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r538062521-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>56371</t>
+  </si>
+  <si>
+    <t>226190</t>
+  </si>
+  <si>
+    <t>538062521</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Cheap rate, good night sleep</t>
+  </si>
+  <si>
+    <t>Clean, comfy all I need. Perfect motel to stay, no frills, cheap price in the area. Good location, near shopping and restaurant at walking distance. Friendly staff. Looks little old but they are in the process of renovation. Only thing is they do not have special discounted rate for a weekly stay. But their cheaper rate I can afford.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r536677716-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>536677716</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Bedbugs at This Hotel!</t>
+  </si>
+  <si>
+    <t>Do not stay at this hotel.  I stayed there and ended up having over 20 bedbug bites.  They should be turned in to the health department.  It is not a good place to stay at all. I did alert the hotel and they did not deny they had a problem with bedbugs.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r475002139-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
-    <t>56371</t>
-  </si>
-  <si>
-    <t>226190</t>
-  </si>
-  <si>
     <t>475002139</t>
   </si>
   <si>
@@ -189,9 +225,6 @@
     <t>We stay at Motel 6 all the time and are always pleased but this one was terrible. The outside looked good and the staff was friendly but the room was horrible. The bedspread was so stained up that I took it off the bed and put it on the floor and when I returned to the room the next day, housekeeping put it back on the bed. There was a hole in the bathroom door, trim was coming off the wall under the air conditioner, scraps on the walls, the toilet seat was coming loose and the bed was so uncomfortable felt like springs were coming out. I understand that we didn't pay a whole lot for the room but still would like a clean decent room.More</t>
   </si>
   <si>
-    <t>jerseygirl6954</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r467162948-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -213,9 +246,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Drake14</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r430137866-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -231,7 +261,55 @@
     <t xml:space="preserve">Very nice rooms with microwave and refrigerator and nice friendly staff. Hotel also has high speed wifi for any business purpose .There are many restaurant or fast food around this area where motel 6 is located .Another , great part of this motel is it near malls and 30 min from Dallas and like 25 min from Irving Tx. </t>
   </si>
   <si>
-    <t>Ally H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r383521012-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>383521012</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>This Hotel Is Vile</t>
+  </si>
+  <si>
+    <t>We had a death in the family and needed a place close to stay for little money. My family and I are from out of town and needed to fly into N Richland Hills for a family member's funeral. I booked through an online company. When I walked into the office I was greeted with a "What's up?"  The room smelled of cigarettes even though it was a non smoking room. There was a band aid on the bathroom floor. The ventilation fan in the bathroom was exposed and gross. My parents' linens were not clean in their room and when the management was told, they replied "They (cleaning staff) are bad for that".  We didn't expect a 5,4, or even 3 star stay but GEEEEEEZ!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We had a death in the family and needed a place close to stay for little money. My family and I are from out of town and needed to fly into N Richland Hills for a family member's funeral. I booked through an online company. When I walked into the office I was greeted with a "What's up?"  The room smelled of cigarettes even though it was a non smoking room. There was a band aid on the bathroom floor. The ventilation fan in the bathroom was exposed and gross. My parents' linens were not clean in their room and when the management was told, they replied "They (cleaning staff) are bad for that".  We didn't expect a 5,4, or even 3 star stay but GEEEEEEZ!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r353475367-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>353475367</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Total Nightmare, WORST check in experience EVER!</t>
+  </si>
+  <si>
+    <t>I made reservations online via Hotels.com and selected their paylater option as I was planning on paying cash. I called the hotel after the reservation was made and I received my confirmation to notify them that I will  be paying cash when I arrive. Once I got to the hotel to check in they had no record of my reservation. After calling hotels.com and a lot if back and forth with the front desk. I find out that the hotel tried to charge my card (even after being told I was paying cash when I got there) then cancelled my reservation. So now with NO reservation, I had to go back and forth some more to even get a room... of which is NOT the type of room I wanted!... I originally booked a SMOKING room SINGLE King bed w/Microwave and Mini Fridge for TWO nights, but now stuck in a NONsmoking room DOUBLE beds w/Microwave and Mini Fridge for only ONE night!!! I'm irate, I'll also be letting EVERYONE I know about this nightmare process and be sure to recommend that they avoid this hotel like the plague!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 North Richland Hills- NE Ft Worth, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>I made reservations online via Hotels.com and selected their paylater option as I was planning on paying cash. I called the hotel after the reservation was made and I received my confirmation to notify them that I will  be paying cash when I arrive. Once I got to the hotel to check in they had no record of my reservation. After calling hotels.com and a lot if back and forth with the front desk. I find out that the hotel tried to charge my card (even after being told I was paying cash when I got there) then cancelled my reservation. So now with NO reservation, I had to go back and forth some more to even get a room... of which is NOT the type of room I wanted!... I originally booked a SMOKING room SINGLE King bed w/Microwave and Mini Fridge for TWO nights, but now stuck in a NONsmoking room DOUBLE beds w/Microwave and Mini Fridge for only ONE night!!! I'm irate, I'll also be letting EVERYONE I know about this nightmare process and be sure to recommend that they avoid this hotel like the plague!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r338041029-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
@@ -252,9 +330,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Nbetita</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r277443139-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -273,12 +348,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>SoCalC8</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r275375338-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -297,10 +366,60 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Sarahcd76</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r274266725-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>274266725</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>NIGHTMARE!!!! AVOID!!!!</t>
+  </si>
+  <si>
+    <t>We had booked for 3 days, and upon check-in discovered we only had scalding hot water and no cold water running in faucets.we called front desk, who advised us that mtc worker was gone for day and we would have to wait until next day!I asked him HOW it was possible to rent us a room with no running cold water??? didn't housekeeping notice the cold water faucet was broken???He said he would come up to check the faucet himself.After verifying there was NO COLD WATER, he then re-stated that mtc was gone until next day!!!We checked out immediately and asked for credit but was told that the hotel could not refund our money since we had used EXPEDIA.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 North Richland Hills- NE Ft Worth, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>We had booked for 3 days, and upon check-in discovered we only had scalding hot water and no cold water running in faucets.we called front desk, who advised us that mtc worker was gone for day and we would have to wait until next day!I asked him HOW it was possible to rent us a room with no running cold water??? didn't housekeeping notice the cold water faucet was broken???He said he would come up to check the faucet himself.After verifying there was NO COLD WATER, he then re-stated that mtc was gone until next day!!!We checked out immediately and asked for credit but was told that the hotel could not refund our money since we had used EXPEDIA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r248178927-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>248178927</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>be careful</t>
+  </si>
+  <si>
+    <t>OMG,  we checked in, daughter had made reservations for 10 days for us.  it is close to her home, the place reeked with pine-sol...... the first non-smoking room smelled of cigarette smoke.  there was even an ash tray  on the desk.
+the second room was better, we stayed?  not a good idea, i have a CPAP respirator,  we had to make a 2 day trip to Tyler TX.  the machine stunk for those 2 days.  When we returned i had the clerk bring a big fan, so i could air out the room.  I opened the windows and ran the fan as long as i could stand the cold.  Don't ask why we did not leave.  just to lazy to pack up every thing, hopping things would get better.  There are residents there, one female drunk who would come down and yell and another from out in the hall way at 3 am or so.  i was ready to kill her my self.  the staff just stands by looking stupid.  There is a woman who owns some dog shop a few blocks away who lives there with at least 3 dogs, who are a pain in the rear when you walk down the hall.  there is another dog there who barks at all hours.  i think when the owner is away is when he barks, 10-11 pm etc.  makes if fun to get a good night sleep. we spent Christmas...OMG,  we checked in, daughter had made reservations for 10 days for us.  it is close to her home, the place reeked with pine-sol...... the first non-smoking room smelled of cigarette smoke.  there was even an ash tray  on the desk.the second room was better, we stayed?  not a good idea, i have a CPAP respirator,  we had to make a 2 day trip to Tyler TX.  the machine stunk for those 2 days.  When we returned i had the clerk bring a big fan, so i could air out the room.  I opened the windows and ran the fan as long as i could stand the cold.  Don't ask why we did not leave.  just to lazy to pack up every thing, hopping things would get better.  There are residents there, one female drunk who would come down and yell and another from out in the hall way at 3 am or so.  i was ready to kill her my self.  the staff just stands by looking stupid.  There is a woman who owns some dog shop a few blocks away who lives there with at least 3 dogs, who are a pain in the rear when you walk down the hall.  there is another dog there who barks at all hours.  i think when the owner is away is when he barks, 10-11 pm etc.  makes if fun to get a good night sleep. we spent Christmas week and a couple of days there.   i complained, was promised an adjustment (credit)  didn't happen.  place is a dump and they don't seen to care!  I think Motel 6 should yank their name off of this place!  Please think twice before you give them your business.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 North Richland Hills- NE Ft Worth, responded to this reviewResponded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2015</t>
+  </si>
+  <si>
+    <t>OMG,  we checked in, daughter had made reservations for 10 days for us.  it is close to her home, the place reeked with pine-sol...... the first non-smoking room smelled of cigarette smoke.  there was even an ash tray  on the desk.
+the second room was better, we stayed?  not a good idea, i have a CPAP respirator,  we had to make a 2 day trip to Tyler TX.  the machine stunk for those 2 days.  When we returned i had the clerk bring a big fan, so i could air out the room.  I opened the windows and ran the fan as long as i could stand the cold.  Don't ask why we did not leave.  just to lazy to pack up every thing, hopping things would get better.  There are residents there, one female drunk who would come down and yell and another from out in the hall way at 3 am or so.  i was ready to kill her my self.  the staff just stands by looking stupid.  There is a woman who owns some dog shop a few blocks away who lives there with at least 3 dogs, who are a pain in the rear when you walk down the hall.  there is another dog there who barks at all hours.  i think when the owner is away is when he barks, 10-11 pm etc.  makes if fun to get a good night sleep. we spent Christmas...OMG,  we checked in, daughter had made reservations for 10 days for us.  it is close to her home, the place reeked with pine-sol...... the first non-smoking room smelled of cigarette smoke.  there was even an ash tray  on the desk.the second room was better, we stayed?  not a good idea, i have a CPAP respirator,  we had to make a 2 day trip to Tyler TX.  the machine stunk for those 2 days.  When we returned i had the clerk bring a big fan, so i could air out the room.  I opened the windows and ran the fan as long as i could stand the cold.  Don't ask why we did not leave.  just to lazy to pack up every thing, hopping things would get better.  There are residents there, one female drunk who would come down and yell and another from out in the hall way at 3 am or so.  i was ready to kill her my self.  the staff just stands by looking stupid.  There is a woman who owns some dog shop a few blocks away who lives there with at least 3 dogs, who are a pain in the rear when you walk down the hall.  there is another dog there who barks at all hours.  i think when the owner is away is when he barks, 10-11 pm etc.  makes if fun to get a good night sleep. we spent Christmas week and a couple of days there.   i complained, was promised an adjustment (credit)  didn't happen.  place is a dump and they don't seen to care!  I think Motel 6 should yank their name off of this place!  Please think twice before you give them your business.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r241247262-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
@@ -321,9 +440,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>WINGER1423</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r237881117-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -354,9 +470,6 @@
     <t>Reservations were screwed up we were supposed to have  2 rooms 2 nites, both non smoking, we arrive had 2 rooms 1 nite, 1 smoking, 1 non, got that settled, sort of,I had to stay in smoking room. The upstairs smoking rooms hallway reeked of smoke and dog**** due to a resident putting dog**** in a hallway trashcan, it was there both days. Furniture in room was falling apart, carpet in hallways was coming up, almost tripped over it coming out of the room. the back entrance had a card reader on it, but did not have a door handle, making the door useless. This place was pretty nice last year just after it became a motel6, it has been totally trashed in the year since I was there last,I would not recommend this place to anyoneMore</t>
   </si>
   <si>
-    <t>Texas_Cristal</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r237846430-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -372,7 +485,40 @@
     <t>Have stayed here several times over the past year, but after my last visit I won't be back. There was noodles in the hall for 2 days. I even watched the maid roll over them with her cart. So gross. Its obvious who ever was managing this place before is no longer there, and whoever is in charge now doesn't care. So disappointed because the location is awesome. More</t>
   </si>
   <si>
-    <t>MissMicheleJ</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r226306314-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>226306314</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Overbooked and HOT!!</t>
+  </si>
+  <si>
+    <t>I booked this room well in advance. We went to the motel to check in about 5:30 p.m. on Saturday, only to be told they didn't not have any available rooms DESPITE me having booked well in advance! Then she said she "found" one room. We took the room because we were in Dallas with 4 kids and needed a room since they had overbooked.  We go up to the room she "found" only to discover that it was dark, about 100 degrees inside, the maid's cart was in there, there was no TV, beds were not made and the curtains were closed and they had numerous holes in them.  We went back down and turned our key back in and left.  We went to a motel down the road that was cheaper, had a continental breakfast and a HUGE pool! Thank you Motel 6 for overbooking!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I booked this room well in advance. We went to the motel to check in about 5:30 p.m. on Saturday, only to be told they didn't not have any available rooms DESPITE me having booked well in advance! Then she said she "found" one room. We took the room because we were in Dallas with 4 kids and needed a room since they had overbooked.  We go up to the room she "found" only to discover that it was dark, about 100 degrees inside, the maid's cart was in there, there was no TV, beds were not made and the curtains were closed and they had numerous holes in them.  We went back down and turned our key back in and left.  We went to a motel down the road that was cheaper, had a continental breakfast and a HUGE pool! Thank you Motel 6 for overbooking!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r215850069-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>215850069</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Do NOT waste your money!!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband and I stayed here for a night and it was horrible.  The AC didn't work and they did absolutely nothing about it. The room was not clean and smelled very musty.  I would rather spend an extra 20 dollars and actually get some rest at a decent hotel. Do not stay here unless you want to be absolutely miserable. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r175168268-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
@@ -393,9 +539,6 @@
     <t>This hotel used to be a comfort inn, so it's definitely a step-up from the standard Motel 6. --Our room &amp; bathroom were huge &amp; appeared very clean, we had a king size bed, sofa desk, flat screen TV, and a mini fridge. --The room smelled completely smoke-free, the AC got the room very cold, the shower had really great, strong water pressure. --One complaint is regarding the shower towels - they were very stained - and even though I know they were washed - I didn't want to dry off with them, they looked too gross. Recommend they throw those ones away or use as rags! --Pool looked nice &amp; well-kept. --Staff were very polite, friendly &amp; helpful. --Area felt safe, parking lot was well-lit and hotel was well located near restaurants, fast food &amp; gas stations. We recommend this hotel, especially for those on a budget, who have realistic expectations of what $45 dollars gets you :)More</t>
   </si>
   <si>
-    <t>Karie J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r146181524-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -417,9 +560,6 @@
     <t>For a Motel 6, this place is a palace. Rooms are large, and better furnished than the average Motel 6. I had a couch, a dirty looking microwave which I did not touch, and a battered mini fridge which worked well.  The room was basically clean, with two exceptions. 1) I really don't think the carpet was dirty, but it was stained looking. 2) when I showered, mildew washed down from underneath the trim in the shower. Also, the phone did mot work. The a/c worked well inthe warm day, and the heat didn't get too hot during the cold night.. Overall it was pretty good for a cheap place to stay.  There is a coin laundry.Its in a good location. There are lots of restauants, and a mall and other entertainment near by.More</t>
   </si>
   <si>
-    <t>vonessr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r70531965-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -445,6 +585,33 @@
   </si>
   <si>
     <t>Do not tarvel much, but when we ever did we always tried to stay at a Comfort Inn or affil. hotel. Wife's brother had a stroke and we waited until he stabilized to travel to Texas. Booked Comfort Inn closest to his home. This was neither a busines or leisure trip but emergency travel. As departure date came closer, we tried to cancell the North Richland Hills Comfort Inn and get a Comfort Inn closer to Southwestern Medical Ceneter. NO help or cooperation from Comfort Inn or Customer Service. Had to stay the  night at North Richland before moving to a closer Comfort Inn. We returned to North Carolina after five days and in June my borther-in-law passed away. While I am/was a "Choice Privileges Rewards Program" member. I/we will NEVER stay at a Comfort Inn, Clarion, Sleep Inn, Quality Inn and/or Comfort Suites again. Now that we are retired and travel more, this was one valuable lesson. Comfort Inn service sure did change or the worse!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d226190-r50367062-Motel_6_North_Richland_Hills_NE_Ft_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>50367062</t>
+  </si>
+  <si>
+    <t>11/30/2009</t>
+  </si>
+  <si>
+    <t>This is a great hotel for price</t>
+  </si>
+  <si>
+    <t>My wife and I spent Thanksgiving Holiday in the metro-plex for Thanksgiving we stayed at the Comfort Inn in NRH. Unlike the other review that is on this hotel we had a very pleasent stay. The rooms are very roomy and our room was very clean. We had everything you would expect from a Comfort Inn. I travel a lot and stay at all types of hotels I just stayed at the Best Western down the road and payed a lot more and the stay was really bad. The only bad thing about the Comfort Inn was it is a little hard to find it is off the highway behind a restaurant needs more signage. The breakfast was fresh and plenty and the housekeepers cleaned our room daily spotless. Dave on the front desk was very friendly and answered all my questions I ask him about the area and the mall down the street. I would tell anyone looking for a nice clean up to date room this is the place to stay when in the area as good if not better than the Best Western, Hampton, Motel 6, Super 8 and the new Comfort Suites at NE Mall. All in all great motel great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>krissygildersleeve, Public Relations Manager at Motel 6 North Richland Hills- NE Ft Worth, responded to this reviewResponded December 21, 2009</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2009</t>
+  </si>
+  <si>
+    <t>My wife and I spent Thanksgiving Holiday in the metro-plex for Thanksgiving we stayed at the Comfort Inn in NRH. Unlike the other review that is on this hotel we had a very pleasent stay. The rooms are very roomy and our room was very clean. We had everything you would expect from a Comfort Inn. I travel a lot and stay at all types of hotels I just stayed at the Best Western down the road and payed a lot more and the stay was really bad. The only bad thing about the Comfort Inn was it is a little hard to find it is off the highway behind a restaurant needs more signage. The breakfast was fresh and plenty and the housekeepers cleaned our room daily spotless. Dave on the front desk was very friendly and answered all my questions I ask him about the area and the mall down the street. I would tell anyone looking for a nice clean up to date room this is the place to stay when in the area as good if not better than the Best Western, Hampton, Motel 6, Super 8 and the new Comfort Suites at NE Mall. All in all great motel great stay.More</t>
   </si>
 </sst>
 </file>
@@ -949,234 +1116,234 @@
       <c r="A2" t="n">
         <v>5959</v>
       </c>
-      <c r="B2" t="n">
-        <v>38581</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5959</v>
       </c>
-      <c r="B3" t="n">
-        <v>169442</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5959</v>
       </c>
-      <c r="B4" t="n">
-        <v>169443</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5959</v>
       </c>
-      <c r="B5" t="n">
-        <v>124777</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1190,125 +1357,107 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5959</v>
       </c>
-      <c r="B6" t="n">
-        <v>169444</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>80</v>
       </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
       <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" t="s">
-        <v>85</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5959</v>
       </c>
-      <c r="B7" t="n">
-        <v>169445</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
         <v>87</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" t="s">
-        <v>93</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="s"/>
@@ -1318,62 +1467,56 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5959</v>
       </c>
-      <c r="B8" t="n">
-        <v>169446</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -1382,342 +1525,310 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5959</v>
       </c>
-      <c r="B9" t="n">
-        <v>169447</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
         <v>102</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>103</v>
       </c>
-      <c r="J9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>107</v>
-      </c>
       <c r="O9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>109</v>
-      </c>
-      <c r="X9" t="s">
-        <v>110</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5959</v>
       </c>
-      <c r="B10" t="n">
-        <v>169448</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
         <v>5</v>
       </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>109</v>
-      </c>
-      <c r="X10" t="s">
-        <v>110</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5959</v>
       </c>
-      <c r="B11" t="n">
-        <v>169449</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5959</v>
       </c>
-      <c r="B12" t="n">
-        <v>169450</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>122</v>
+      </c>
+      <c r="X12" t="s">
+        <v>123</v>
+      </c>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5959</v>
       </c>
-      <c r="B13" t="n">
-        <v>169451</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>1</v>
@@ -1726,13 +1837,592 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
         <v>140</v>
       </c>
-      <c r="X13" t="s">
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
         <v>141</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="J15" t="s">
         <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>146</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>186</v>
+      </c>
+      <c r="X21" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>195</v>
+      </c>
+      <c r="X22" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
